--- a/biology/Botanique/Mil_à_chandelle/Mil_à_chandelle.xlsx
+++ b/biology/Botanique/Mil_à_chandelle/Mil_à_chandelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mil_%C3%A0_chandelle</t>
+          <t>Mil_à_chandelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pennisetum glaucum
 Le mil à chandelle ou simplement mil (Pennisetum glaucum) est une espèce de plantes annuelles de la famille des Poaceae (Graminées). Elle est cultivée comme céréale pour ses graines comestibles. Le terme désigne aussi ses graines consommées par l'homme et les animaux domestiques. C'est la plus cultivée de toutes les espèces de mil et millets.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mil_%C3%A0_chandelle</t>
+          <t>Mil_à_chandelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mil est une grande graminée, de 1 m jusqu'à 3-4 m de haut.
 L'inflorescence est une panicule dense ou faux-épi, longue de 20 cm jusqu'à 1,5 m qui rappelle l'inflorescence des joncs (d'où son nom de mil à chandelle).
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mil_%C3%A0_chandelle</t>
+          <t>Mil_à_chandelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,12 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation humaine
-C'est une culture vivrière qui a quelque importance en Inde et au Pakistan, ainsi que dans le Sahel africain, dans des zones semi-arides. Les graines sont consommées comme le riz, bouillies, cuites à la vapeur... Elles sont aussi transformées en farine, mais celle-ci n'est pas panifiable. En Afrique, on en fabrique également de la bière (dolo) à partir des graines germées.
-Alimentation animale
-En Europe, l'usage principal est l'alimentation des oiseaux de compagnie, de la volaille et autrefois du bétail. La plante entière est aussi récoltée comme fourrage d'été en pâturage, ensilage ou foin sous le nom de millet perlé.
-Agrocarburants
-Au Canada, une étude de recherche du MAPAQ (ministère de l'Agriculture, de l'Alimentation et des Pêcheries du Québec) démontre le potentiel phénoménal de cette plante pour produire de l'éthanol. La plante est récoltée comme fourrage et pressée. La sève alors extraite est fermentée et distillée. Les drèches peuvent très bien servir à l'alimentation animale. Le potentiel d'éthanol est d'environ 4 000 litres par hectare contre 3 000 à 3 200 pour le maïs[1].
+          <t>Alimentation humaine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une culture vivrière qui a quelque importance en Inde et au Pakistan, ainsi que dans le Sahel africain, dans des zones semi-arides. Les graines sont consommées comme le riz, bouillies, cuites à la vapeur... Elles sont aussi transformées en farine, mais celle-ci n'est pas panifiable. En Afrique, on en fabrique également de la bière (dolo) à partir des graines germées.
 </t>
         </is>
       </c>
@@ -565,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mil_%C3%A0_chandelle</t>
+          <t>Mil_à_chandelle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +595,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Alimentation animale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe, l'usage principal est l'alimentation des oiseaux de compagnie, de la volaille et autrefois du bétail. La plante entière est aussi récoltée comme fourrage d'été en pâturage, ensilage ou foin sous le nom de millet perlé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mil_à_chandelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mil_%C3%A0_chandelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Agrocarburants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Canada, une étude de recherche du MAPAQ (ministère de l'Agriculture, de l'Alimentation et des Pêcheries du Québec) démontre le potentiel phénoménal de cette plante pour produire de l'éthanol. La plante est récoltée comme fourrage et pressée. La sève alors extraite est fermentée et distillée. Les drèches peuvent très bien servir à l'alimentation animale. Le potentiel d'éthanol est d'environ 4 000 litres par hectare contre 3 000 à 3 200 pour le maïs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mil_à_chandelle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mil_%C3%A0_chandelle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Panicum glaucum L.
 Chaetochloa glauca (L.) Scribn.
